--- a/recursos/FALTANTES CONSORCIO_29112022.xlsx
+++ b/recursos/FALTANTES CONSORCIO_29112022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevFiles\xampps\7.0.32\htdocs\consorcio_test\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F6F8EB-62FE-40B4-A466-9917B328DEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D04048-D037-4065-BBC4-9F92E7368A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C35" sqref="C35:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1088,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="11" t="s">
         <v>63</v>
       </c>
       <c r="D36" s="8">
@@ -1096,7 +1096,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="8">
